--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_T45.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1576341520250627</v>
+        <v>0.1504689633014369</v>
       </c>
       <c r="C2">
-        <v>0.2445371642388119</v>
+        <v>0.2334218385963792</v>
       </c>
       <c r="D2">
-        <v>0.2768417854783594</v>
+        <v>0.2642580679566157</v>
       </c>
       <c r="E2">
-        <v>0.5261575671586975</v>
+        <v>0.5140603738439832</v>
       </c>
       <c r="F2">
-        <v>0.5143859665400912</v>
+        <v>0.5031130469799929</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03384148218756546</v>
+        <v>0.406982015469362</v>
       </c>
       <c r="C3">
-        <v>2.438137032900653</v>
+        <v>2.696787301862778</v>
       </c>
       <c r="D3">
-        <v>25.8421512967348</v>
+        <v>27.56079346563211</v>
       </c>
       <c r="E3">
-        <v>5.083517610546343</v>
+        <v>5.249837470401546</v>
       </c>
       <c r="F3">
-        <v>5.215463450246891</v>
+        <v>5.36329349000709</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4849537175440215</v>
+        <v>-0.9836666976115556</v>
       </c>
       <c r="C4">
-        <v>2.088995177989544</v>
+        <v>2.507506085034803</v>
       </c>
       <c r="D4">
-        <v>15.24307518103555</v>
+        <v>19.95067858449099</v>
       </c>
       <c r="E4">
-        <v>3.904238105064233</v>
+        <v>4.466618249245283</v>
       </c>
       <c r="F4">
-        <v>3.98015917035599</v>
+        <v>4.470144047190493</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.06010708056502535</v>
+        <v>-0.1790030931086928</v>
       </c>
       <c r="C5">
-        <v>1.340693197146163</v>
+        <v>1.392189940396086</v>
       </c>
       <c r="D5">
-        <v>6.811415928974658</v>
+        <v>6.735992462938008</v>
       </c>
       <c r="E5">
-        <v>2.609868948620727</v>
+        <v>2.595379059586096</v>
       </c>
       <c r="F5">
-        <v>2.684820677779288</v>
+        <v>2.660148875912306</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05399067112702907</v>
+        <v>-0.08048131822523331</v>
       </c>
       <c r="C6">
-        <v>1.638242064278592</v>
+        <v>1.576718745090598</v>
       </c>
       <c r="D6">
-        <v>10.79276957321698</v>
+        <v>10.20882528216252</v>
       </c>
       <c r="E6">
-        <v>3.28523508644617</v>
+        <v>3.195125237320522</v>
       </c>
       <c r="F6">
-        <v>3.385885481220347</v>
+        <v>3.28671358039524</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1764013905427501</v>
+        <v>-0.3841978569163946</v>
       </c>
       <c r="C7">
-        <v>1.90669953868208</v>
+        <v>2.012713761047529</v>
       </c>
       <c r="D7">
-        <v>14.30483248270527</v>
+        <v>14.27256267236992</v>
       </c>
       <c r="E7">
-        <v>3.782172984238726</v>
+        <v>3.777904534576003</v>
       </c>
       <c r="F7">
-        <v>3.901960537250624</v>
+        <v>3.873985589358225</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05044591768577677</v>
+        <v>-0.2198684980862554</v>
       </c>
       <c r="C8">
-        <v>1.853000021678093</v>
+        <v>1.996418041492534</v>
       </c>
       <c r="D8">
-        <v>11.46807497152461</v>
+        <v>11.77248202587504</v>
       </c>
       <c r="E8">
-        <v>3.386454631546776</v>
+        <v>3.431105073569599</v>
       </c>
       <c r="F8">
-        <v>3.513900118242367</v>
+        <v>3.544231712448563</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
